--- a/src/main/resources/shablon.xlsx
+++ b/src/main/resources/shablon.xlsx
@@ -17,7 +17,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26,6 +26,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -56,8 +65,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -361,17 +376,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
